--- a/model/porte.xlsx
+++ b/model/porte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\renolab\audit\main\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C28AB-5105-4EBE-A8D5-981A73029EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234313DF-F33E-4E1C-90F7-AF35560950B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="781" activeTab="6" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
@@ -327,13 +327,13 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -442,33 +442,7 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -500,6 +474,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -514,7 +498,23 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -605,64 +605,64 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{862FD48D-CF63-4BE0-8261-3BE83269B0A3}" name="nature_menuiserie" displayName="nature_menuiserie" ref="A1:C5" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{862FD48D-CF63-4BE0-8261-3BE83269B0A3}" name="nature_menuiserie" displayName="nature_menuiserie" ref="A1:C5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:C5" xr:uid="{862FD48D-CF63-4BE0-8261-3BE83269B0A3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{42EDDE64-5276-4F16-AF44-15E4B9BA43BB}" name="id" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{AB67E236-E5D8-4EA2-93E1-420F3FAEC502}" name="lib" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{E359C3C3-7CFE-4D7A-AD59-25597A7B2852}" name="type_porte_id" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{42EDDE64-5276-4F16-AF44-15E4B9BA43BB}" name="id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{AB67E236-E5D8-4EA2-93E1-420F3FAEC502}" name="lib" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{E359C3C3-7CFE-4D7A-AD59-25597A7B2852}" name="type_porte_id" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{449C0A29-4E16-4C0F-A5A9-2E2852F0349D}" name="type_porte_deprecated" displayName="type_porte_deprecated" ref="A1:F17" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{449C0A29-4E16-4C0F-A5A9-2E2852F0349D}" name="type_porte_deprecated" displayName="type_porte_deprecated" ref="A1:F17" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:F17" xr:uid="{449C0A29-4E16-4C0F-A5A9-2E2852F0349D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F17">
     <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E60F2414-E899-401A-9777-5126610C4AFE}" name="id" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{6B7181EC-5672-437C-B4C6-5AA0A7EEAB73}" name="lib" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{D010B129-3801-4CE7-BDC5-979B9C220F24}" name="nature_menuiserie_id" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{E1E62DB8-BCAF-4F2F-AD62-1BC555BDD05F}" name="nature_menuiserie" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{E60F2414-E899-401A-9777-5126610C4AFE}" name="id" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{6B7181EC-5672-437C-B4C6-5AA0A7EEAB73}" name="lib" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{D010B129-3801-4CE7-BDC5-979B9C220F24}" name="nature_menuiserie_id" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{E1E62DB8-BCAF-4F2F-AD62-1BC555BDD05F}" name="nature_menuiserie" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(type_porte_deprecated[[#This Row],[nature_menuiserie_id]],nature_menuiserie[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EE9F8282-1AD8-4659-954A-873DC2AA2AC6}" name="enum_type_porte_id" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{218A202E-25E9-43DA-B231-AA2F21079F63}" name="enum_type_porte" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{EE9F8282-1AD8-4659-954A-873DC2AA2AC6}" name="enum_type_porte_id" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{218A202E-25E9-43DA-B231-AA2F21079F63}" name="enum_type_porte" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{225C245E-DE88-4197-B4DC-877FCDEA3264}" name="type_porte" displayName="type_porte" ref="A1:B12" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{225C245E-DE88-4197-B4DC-877FCDEA3264}" name="type_porte" displayName="type_porte" ref="A1:B12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:B12" xr:uid="{225C245E-DE88-4197-B4DC-877FCDEA3264}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD466901-944E-41AA-93F5-B8FEDBA4B727}" name="id" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{1CE04A53-C058-4301-A1C4-CDDDEC3533E0}" name="lib" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{BD466901-944E-41AA-93F5-B8FEDBA4B727}" name="id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1CE04A53-C058-4301-A1C4-CDDDEC3533E0}" name="lib" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9AA0B8F3-D0C2-42E0-B076-76BB367FB240}" name="type_pose" displayName="type_pose" ref="A1:B4" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9AA0B8F3-D0C2-42E0-B076-76BB367FB240}" name="type_pose" displayName="type_pose" ref="A1:B4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:B4" xr:uid="{9AA0B8F3-D0C2-42E0-B076-76BB367FB240}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9361C8E8-BB60-4471-840E-557CD50AB2E5}" name="id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{C2CEFD05-B5A2-436E-8121-791B1C6177C3}" name="lib" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{9361C8E8-BB60-4471-840E-557CD50AB2E5}" name="id" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C2CEFD05-B5A2-436E-8121-791B1C6177C3}" name="lib" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -720,11 +720,11 @@
       <calculatedColumnFormula>VLOOKUP(uporte[[#This Row],[nature_menuiserie_id]],nature_menuiserie[#All],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{30DEE1AF-50DF-476F-939D-7940BD9F6ACD}" name="type_porte_id" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6A781864-4C34-4F73-9E1C-B06715EA24CC}" name="type_porte" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{6A781864-4C34-4F73-9E1C-B06715EA24CC}" name="type_porte" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(uporte[[#This Row],[type_porte_id]],type_porte[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2CE60DF6-CA21-443B-A9B1-6A425333D756}" name="uporte" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C9E80DFB-18C9-430F-AC29-2FEF8FB1418E}" name="tv_uporte_id" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2CE60DF6-CA21-443B-A9B1-6A425333D756}" name="uporte" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C9E80DFB-18C9-430F-AC29-2FEF8FB1418E}" name="tv_uporte_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,8 +1759,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1823,7 +1824,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,7 +1914,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
